--- a/Documentation/Inventory Control System (Screen Transitions).xlsx
+++ b/Documentation/Inventory Control System (Screen Transitions).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shalabh\Inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shalabh\VFP Work\GIT Repos\Invt_Control\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D691CE9-8C04-45AE-9058-BB12C0C16819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -184,7 +191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -222,7 +235,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -260,7 +279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -298,7 +323,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -336,7 +367,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -374,7 +411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -412,7 +455,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -450,7 +499,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -488,7 +543,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -526,7 +587,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -564,7 +631,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -602,7 +675,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -640,7 +719,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -678,7 +763,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -716,7 +807,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -754,7 +851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rounded Rectangular Callout 15"/>
+        <xdr:cNvPr id="16" name="Rounded Rectangular Callout 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -820,7 +923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -858,7 +967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -896,7 +1011,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33"/>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -934,7 +1055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -972,7 +1099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35"/>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1010,7 +1143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36"/>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1048,7 +1187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rounded Rectangular Callout 37"/>
+        <xdr:cNvPr id="38" name="Rounded Rectangular Callout 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1114,7 +1259,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Rounded Rectangular Callout 38"/>
+        <xdr:cNvPr id="39" name="Rounded Rectangular Callout 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1192,7 +1343,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rounded Rectangular Callout 39"/>
+        <xdr:cNvPr id="40" name="Rounded Rectangular Callout 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1261,7 +1418,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Rounded Rectangular Callout 40"/>
+        <xdr:cNvPr id="41" name="Rounded Rectangular Callout 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1339,7 +1502,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rounded Rectangular Callout 41"/>
+        <xdr:cNvPr id="42" name="Rounded Rectangular Callout 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1400,7 +1569,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Rounded Rectangular Callout 42"/>
+        <xdr:cNvPr id="43" name="Rounded Rectangular Callout 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1466,7 +1641,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Rounded Rectangular Callout 43"/>
+        <xdr:cNvPr id="44" name="Rounded Rectangular Callout 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1532,7 +1713,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rounded Rectangular Callout 44"/>
+        <xdr:cNvPr id="45" name="Rounded Rectangular Callout 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1593,7 +1780,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rounded Rectangular Callout 45"/>
+        <xdr:cNvPr id="46" name="Rounded Rectangular Callout 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1654,7 +1847,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rounded Rectangular Callout 46"/>
+        <xdr:cNvPr id="47" name="Rounded Rectangular Callout 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1730,7 +1929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rounded Rectangular Callout 47"/>
+        <xdr:cNvPr id="48" name="Rounded Rectangular Callout 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1842,7 +2047,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Rectangle 48"/>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1900,7 +2111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 49"/>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1958,7 +2175,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rounded Rectangular Callout 50"/>
+        <xdr:cNvPr id="51" name="Rounded Rectangular Callout 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2023,7 +2246,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rounded Rectangular Callout 51"/>
+        <xdr:cNvPr id="52" name="Rounded Rectangular Callout 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2085,7 +2314,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Right Arrow 52"/>
+        <xdr:cNvPr id="53" name="Right Arrow 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2139,7 +2374,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rounded Rectangular Callout 53"/>
+        <xdr:cNvPr id="54" name="Rounded Rectangular Callout 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2200,7 +2441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Rounded Rectangular Callout 54"/>
+        <xdr:cNvPr id="55" name="Rounded Rectangular Callout 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2269,7 +2516,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Rectangle 55"/>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2327,7 +2580,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Rounded Rectangular Callout 56"/>
+        <xdr:cNvPr id="57" name="Rounded Rectangular Callout 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2393,7 +2652,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Rounded Rectangular Callout 57"/>
+        <xdr:cNvPr id="58" name="Rounded Rectangular Callout 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2469,7 +2734,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Rounded Rectangular Callout 58"/>
+        <xdr:cNvPr id="59" name="Rounded Rectangular Callout 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2569,7 +2840,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Rectangle 59"/>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2627,7 +2904,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Rectangle 60"/>
+        <xdr:cNvPr id="61" name="Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2685,7 +2968,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Rounded Rectangular Callout 61"/>
+        <xdr:cNvPr id="62" name="Rounded Rectangular Callout 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2750,7 +3039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Rounded Rectangular Callout 62"/>
+        <xdr:cNvPr id="63" name="Rounded Rectangular Callout 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2812,7 +3107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Rounded Rectangular Callout 63"/>
+        <xdr:cNvPr id="64" name="Rounded Rectangular Callout 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2877,7 +3178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Right Arrow 64"/>
+        <xdr:cNvPr id="65" name="Right Arrow 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2931,7 +3238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rounded Rectangular Callout 65"/>
+        <xdr:cNvPr id="66" name="Rounded Rectangular Callout 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2993,7 +3306,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3031,7 +3350,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3069,7 +3394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3107,7 +3438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Rounded Rectangular Callout 66"/>
+        <xdr:cNvPr id="67" name="Rounded Rectangular Callout 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3172,7 +3509,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3210,7 +3553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Rounded Rectangular Callout 67"/>
+        <xdr:cNvPr id="68" name="Rounded Rectangular Callout 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3272,7 +3621,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3310,7 +3665,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3348,7 +3709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3386,7 +3753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Rounded Rectangular Callout 68"/>
+        <xdr:cNvPr id="69" name="Rounded Rectangular Callout 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3451,7 +3824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3489,7 +3868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Rounded Rectangular Callout 69"/>
+        <xdr:cNvPr id="70" name="Rounded Rectangular Callout 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3804,15 +4189,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C525"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C525"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
